--- a/doc/定量仪软件功能梳理V1.0.xlsx
+++ b/doc/定量仪软件功能梳理V1.0.xlsx
@@ -4,19 +4,56 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="功能梳理" sheetId="1" r:id="rId1"/>
     <sheet name="方案说明" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="数据提交协议" sheetId="4" r:id="rId3"/>
+    <sheet name="数据库表设计" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+此部分功能此次方案暂不提供</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +156,79 @@
   </si>
   <si>
     <t>系统结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交数据协议有两部分构成=消息头+消息体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sequence_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息头[head]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4个字节</t>
+  </si>
+  <si>
+    <t>4个字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command_id=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息体为提交数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例如：
+{
+    "name": "张三",
+    "phone": "13312341234",
+    "date": "20150426123456",
+    "type": "唾液",
+    "result": "27.3",
+    "age": "35",
+    "sex": "0",
+    "pid": "20150001"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息体说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>command_id=0x80000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息体为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -126,7 +236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,13 +252,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -180,7 +311,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +319,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -250,6 +390,202 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="114300" y="3324225"/>
+          <a:ext cx="4429125" cy="2476500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="66675" y="6296025"/>
+          <a:ext cx="4848225" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3074" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5543550" y="0"/>
+          <a:ext cx="3552825" cy="3705225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="352425" y="123825"/>
+          <a:ext cx="6515100" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -544,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -630,76 +966,76 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -712,15 +1048,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
+  <dimension ref="A2:A36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -728,6 +1065,16 @@
     <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -740,14 +1087,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="162">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/定量仪软件功能梳理V1.0.xlsx
+++ b/doc/定量仪软件功能梳理V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能梳理" sheetId="1" r:id="rId1"/>
@@ -311,24 +311,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -880,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -906,7 +912,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -916,7 +922,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -924,7 +930,7 @@
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -934,7 +940,7 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,7 +948,7 @@
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,7 +956,7 @@
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,7 +964,7 @@
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
@@ -966,76 +972,76 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1089,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1101,68 +1107,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="B3" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
     <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="162">
-      <c r="A8" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="148.5">
+      <c r="A8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
